--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Pth2r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.12404233333334</v>
+        <v>0.1203763333333333</v>
       </c>
       <c r="H2">
-        <v>42.37212700000001</v>
+        <v>0.361129</v>
       </c>
       <c r="I2">
-        <v>0.8844735734357805</v>
+        <v>0.007481788818141147</v>
       </c>
       <c r="J2">
-        <v>0.8844735734357805</v>
+        <v>0.007481788818141146</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03040966666666666</v>
+        <v>0.4182273333333333</v>
       </c>
       <c r="N2">
-        <v>0.09122899999999999</v>
+        <v>1.254682</v>
       </c>
       <c r="O2">
-        <v>0.05075140495536742</v>
+        <v>0.7353072693143266</v>
       </c>
       <c r="P2">
-        <v>0.05075140495536741</v>
+        <v>0.7353072693143266</v>
       </c>
       <c r="Q2">
-        <v>0.4295074193425556</v>
+        <v>0.05034467288644445</v>
       </c>
       <c r="R2">
-        <v>3.865566774083</v>
+        <v>0.4531020559780001</v>
       </c>
       <c r="S2">
-        <v>0.0448882764977602</v>
+        <v>0.005501413705453829</v>
       </c>
       <c r="T2">
-        <v>0.04488827649776019</v>
+        <v>0.005501413705453828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.12404233333334</v>
+        <v>0.1203763333333333</v>
       </c>
       <c r="H3">
-        <v>42.37212700000001</v>
+        <v>0.361129</v>
       </c>
       <c r="I3">
-        <v>0.8844735734357805</v>
+        <v>0.007481788818141147</v>
       </c>
       <c r="J3">
-        <v>0.8844735734357805</v>
+        <v>0.007481788818141146</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,39 +614,39 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4182273333333333</v>
+        <v>0.1505516666666667</v>
       </c>
       <c r="N3">
-        <v>1.254682</v>
+        <v>0.451655</v>
       </c>
       <c r="O3">
-        <v>0.6979893923227297</v>
+        <v>0.2646927306856734</v>
       </c>
       <c r="P3">
-        <v>0.6979893923227297</v>
+        <v>0.2646927306856735</v>
       </c>
       <c r="Q3">
-        <v>5.907060560957112</v>
+        <v>0.01812285761055556</v>
       </c>
       <c r="R3">
-        <v>53.16354504861401</v>
+        <v>0.163105718495</v>
       </c>
       <c r="S3">
-        <v>0.6173531720479537</v>
+        <v>0.001980375112687318</v>
       </c>
       <c r="T3">
-        <v>0.6173531720479537</v>
+        <v>0.001980375112687318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.12404233333334</v>
+        <v>14.12404233333333</v>
       </c>
       <c r="H4">
-        <v>42.37212700000001</v>
+        <v>42.372127</v>
       </c>
       <c r="I4">
-        <v>0.8844735734357805</v>
+        <v>0.8778561289441074</v>
       </c>
       <c r="J4">
-        <v>0.8844735734357805</v>
+        <v>0.8778561289441073</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1505516666666667</v>
+        <v>0.4182273333333333</v>
       </c>
       <c r="N4">
-        <v>0.451655</v>
+        <v>1.254682</v>
       </c>
       <c r="O4">
-        <v>0.2512592027219028</v>
+        <v>0.7353072693143266</v>
       </c>
       <c r="P4">
-        <v>0.2512592027219028</v>
+        <v>0.7353072693143266</v>
       </c>
       <c r="Q4">
-        <v>2.126398113353889</v>
+        <v>5.907060560957111</v>
       </c>
       <c r="R4">
-        <v>19.13758302018501</v>
+        <v>53.163545048614</v>
       </c>
       <c r="S4">
-        <v>0.2222321248900666</v>
+        <v>0.645493993024737</v>
       </c>
       <c r="T4">
-        <v>0.2222321248900666</v>
+        <v>0.6454939930247369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,60 +720,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.844826333333333</v>
+        <v>14.12404233333333</v>
       </c>
       <c r="H5">
-        <v>5.534479</v>
+        <v>42.372127</v>
       </c>
       <c r="I5">
-        <v>0.1155264265642195</v>
+        <v>0.8778561289441074</v>
       </c>
       <c r="J5">
-        <v>0.1155264265642195</v>
+        <v>0.8778561289441073</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03040966666666666</v>
+        <v>0.1505516666666667</v>
       </c>
       <c r="N5">
-        <v>0.09122899999999999</v>
+        <v>0.451655</v>
       </c>
       <c r="O5">
-        <v>0.05075140495536742</v>
+        <v>0.2646927306856734</v>
       </c>
       <c r="P5">
-        <v>0.05075140495536741</v>
+        <v>0.2646927306856735</v>
       </c>
       <c r="Q5">
-        <v>0.05610055385455556</v>
+        <v>2.126398113353889</v>
       </c>
       <c r="R5">
-        <v>0.504904984691</v>
+        <v>19.137583020185</v>
       </c>
       <c r="S5">
-        <v>0.005863128457607222</v>
+        <v>0.2323621359193704</v>
       </c>
       <c r="T5">
-        <v>0.005863128457607221</v>
+        <v>0.2323621359193705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.844826333333333</v>
+        <v>1.844826333333334</v>
       </c>
       <c r="H6">
-        <v>5.534479</v>
+        <v>5.534479000000001</v>
       </c>
       <c r="I6">
-        <v>0.1155264265642195</v>
+        <v>0.1146620822377516</v>
       </c>
       <c r="J6">
-        <v>0.1155264265642195</v>
+        <v>0.1146620822377516</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,36 +806,36 @@
         <v>1.254682</v>
       </c>
       <c r="O6">
-        <v>0.6979893923227297</v>
+        <v>0.7353072693143266</v>
       </c>
       <c r="P6">
-        <v>0.6979893923227297</v>
+        <v>0.7353072693143266</v>
       </c>
       <c r="Q6">
-        <v>0.7715567978531112</v>
+        <v>0.7715567978531113</v>
       </c>
       <c r="R6">
-        <v>6.944011180678</v>
+        <v>6.944011180678002</v>
       </c>
       <c r="S6">
-        <v>0.08063622027477606</v>
+        <v>0.08431186258413588</v>
       </c>
       <c r="T6">
-        <v>0.08063622027477606</v>
+        <v>0.08431186258413587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.844826333333333</v>
+        <v>1.844826333333334</v>
       </c>
       <c r="H7">
-        <v>5.534479</v>
+        <v>5.534479000000001</v>
       </c>
       <c r="I7">
-        <v>0.1155264265642195</v>
+        <v>0.1146620822377516</v>
       </c>
       <c r="J7">
-        <v>0.1155264265642195</v>
+        <v>0.1146620822377516</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,22 +868,22 @@
         <v>0.451655</v>
       </c>
       <c r="O7">
-        <v>0.2512592027219028</v>
+        <v>0.2646927306856734</v>
       </c>
       <c r="P7">
-        <v>0.2512592027219028</v>
+        <v>0.2646927306856735</v>
       </c>
       <c r="Q7">
         <v>0.2777416791938889</v>
       </c>
       <c r="R7">
-        <v>2.499675112745</v>
+        <v>2.499675112745001</v>
       </c>
       <c r="S7">
-        <v>0.02902707783183626</v>
+        <v>0.03035021965361573</v>
       </c>
       <c r="T7">
-        <v>0.02902707783183626</v>
+        <v>0.03035021965361573</v>
       </c>
     </row>
   </sheetData>
